--- a/CLINICA GERMAN BABAHOYO/20240400544. CANULADOS 6.5 ACERO.xlsx
+++ b/CLINICA GERMAN BABAHOYO/20240400544. CANULADOS 6.5 ACERO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CLINICA GERMAN BABAHOYO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B616465-1491-446A-9FB8-985E153C703E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85294889-B39C-4CF2-A237-72106B5090B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$2:$E$122</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$2:$E$125</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="134">
   <si>
     <t>FECHA DE EMISIÓN:</t>
   </si>
@@ -379,96 +379,6 @@
     <t>7:00PM</t>
   </si>
   <si>
-    <t>116.130</t>
-  </si>
-  <si>
-    <t>210431403</t>
-  </si>
-  <si>
-    <t>TORNILLO CANULADO 4.0*30mm ACERO</t>
-  </si>
-  <si>
-    <t>116.132</t>
-  </si>
-  <si>
-    <t>TORNILLO CANULADO 4.0*32mm ACERO</t>
-  </si>
-  <si>
-    <t>116.134</t>
-  </si>
-  <si>
-    <t>TORNILLO CANULADO 4.0*34mm ACERO</t>
-  </si>
-  <si>
-    <t>116.136</t>
-  </si>
-  <si>
-    <t>TORNILLO CANULADO 4.0*36mm ACERO</t>
-  </si>
-  <si>
-    <t>116.138</t>
-  </si>
-  <si>
-    <t>TORNILLO CANULADO 4.0*38mm ACERO</t>
-  </si>
-  <si>
-    <t>116.140</t>
-  </si>
-  <si>
-    <t>TORNILLO CANULADO 4.0*40mm ACERO</t>
-  </si>
-  <si>
-    <t>116.142</t>
-  </si>
-  <si>
-    <t>TORNILLO CANULADO 4.0*42mm ACERO</t>
-  </si>
-  <si>
-    <t>116.144</t>
-  </si>
-  <si>
-    <t>TORNILLO CANULADO 4.0*44mm ACERO</t>
-  </si>
-  <si>
-    <t>116.146</t>
-  </si>
-  <si>
-    <t>TORNILLO CANULADO 4.0*46mm ACERO</t>
-  </si>
-  <si>
-    <t>116.148</t>
-  </si>
-  <si>
-    <t>TORNILLO CANULADO 4.0*48mm ACERO</t>
-  </si>
-  <si>
-    <t>116.150</t>
-  </si>
-  <si>
-    <t>TORNILLO CANULADO 4.0*50mm ACERO</t>
-  </si>
-  <si>
-    <t>116.155</t>
-  </si>
-  <si>
-    <t>TORNILLO CANULADO 4.0*55mm ACERO</t>
-  </si>
-  <si>
-    <t>116.160</t>
-  </si>
-  <si>
-    <t>TORNILLO CANULADO 4.0*60mm ACERO</t>
-  </si>
-  <si>
-    <t>115.030</t>
-  </si>
-  <si>
-    <t>220445447</t>
-  </si>
-  <si>
-    <t>ARANDELA 3.5mm ACERO</t>
-  </si>
-  <si>
     <t>INSTRUMENTAL BASICO 4.5  # 3</t>
   </si>
   <si>
@@ -521,13 +431,124 @@
   </si>
   <si>
     <t>2310111003-001</t>
+  </si>
+  <si>
+    <t>465.435</t>
+  </si>
+  <si>
+    <t>TORNILLO CANULADO 6.5*35mm ACERO</t>
+  </si>
+  <si>
+    <t>465.440</t>
+  </si>
+  <si>
+    <t>TORNILLO CANULADO 6.5*40mm ACERO</t>
+  </si>
+  <si>
+    <t>465.445</t>
+  </si>
+  <si>
+    <t>TORNILLO CANULADO 6.5*45mm ACERO</t>
+  </si>
+  <si>
+    <t>465.450</t>
+  </si>
+  <si>
+    <t>TORNILLO CANULADO 6.5*50mm ACERO</t>
+  </si>
+  <si>
+    <t>465.455</t>
+  </si>
+  <si>
+    <t>TORNILLO CANULADO 6.5*55mm ACERO</t>
+  </si>
+  <si>
+    <t>465.460</t>
+  </si>
+  <si>
+    <t>TORNILLO CANULADO 6.5*60mm ACERO</t>
+  </si>
+  <si>
+    <t>465.465</t>
+  </si>
+  <si>
+    <t>TORNILLO CANULADO 6.5*65mm ACERO</t>
+  </si>
+  <si>
+    <t>465.470</t>
+  </si>
+  <si>
+    <t>TORNILLO CANULADO 6.5*70mm ACERO</t>
+  </si>
+  <si>
+    <t>465.475</t>
+  </si>
+  <si>
+    <t>TORNILLO CANULADO 6.5*75mm ACERO</t>
+  </si>
+  <si>
+    <t>465.480</t>
+  </si>
+  <si>
+    <t>TORNILLO CANULADO 6.5*80mm ACERO</t>
+  </si>
+  <si>
+    <t>465.485</t>
+  </si>
+  <si>
+    <t>TORNILLO CANULADO 6.5*85mm ACERO</t>
+  </si>
+  <si>
+    <t>465.490</t>
+  </si>
+  <si>
+    <t>TORNILLO CANULADO 6.5*90mm ACERO</t>
+  </si>
+  <si>
+    <t>465.495</t>
+  </si>
+  <si>
+    <t>TORNILLO CANULADO 6.5*95mm ACERO</t>
+  </si>
+  <si>
+    <t>465.500</t>
+  </si>
+  <si>
+    <t>TORNILLO CANULADO 6.5*100mm ACERO</t>
+  </si>
+  <si>
+    <t>465.505</t>
+  </si>
+  <si>
+    <t>632700</t>
+  </si>
+  <si>
+    <t>TORNILLO CANULADO 6.5*105mm ACERO</t>
+  </si>
+  <si>
+    <t>465.510</t>
+  </si>
+  <si>
+    <t>190805276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORNILLO CANULADO 6.5*110mm ACERO </t>
+  </si>
+  <si>
+    <t>115.020</t>
+  </si>
+  <si>
+    <t>200316715</t>
+  </si>
+  <si>
+    <t>ARANDELA 4.5mm ACERO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="9">
     <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -536,10 +557,9 @@
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="170" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="175" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="172" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -733,8 +753,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -765,8 +791,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFDEEAF6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -984,8 +1022,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="194">
+  <cellStyleXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1173,15 +1226,17 @@
     <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1322,6 +1377,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1370,38 +1429,36 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="194">
+  <cellStyles count="196">
     <cellStyle name="Millares 2" xfId="4" xr:uid="{0F5AFBA4-F8B2-4205-9D59-546B0230D61D}"/>
     <cellStyle name="Millares 2 2" xfId="109" xr:uid="{928DB253-950B-4EB0-8F77-76FA50573F05}"/>
     <cellStyle name="Millares 2 3" xfId="182" xr:uid="{70C8504A-7A37-4E0A-9C41-746D0B00148A}"/>
@@ -1576,6 +1633,8 @@
     <cellStyle name="Moneda 5 3" xfId="150" xr:uid="{177235F3-1618-4767-A9A5-8B241655EC9F}"/>
     <cellStyle name="Moneda 5 4" xfId="192" xr:uid="{399A8AA0-8A86-4B37-B239-490E71177F10}"/>
     <cellStyle name="Moneda 50" xfId="186" xr:uid="{A5F7A6C8-7C3C-4BEF-8FD1-EA73328D5FF0}"/>
+    <cellStyle name="Moneda 51" xfId="194" xr:uid="{3C5E4843-F3F9-47F7-BAB1-12848208DE0D}"/>
+    <cellStyle name="Moneda 52" xfId="195" xr:uid="{7BCE8494-F7ED-4C94-8830-717F257F649B}"/>
     <cellStyle name="Moneda 6" xfId="20" xr:uid="{344B3183-2DC0-4200-8414-D785EC079C7E}"/>
     <cellStyle name="Moneda 6 2" xfId="87" xr:uid="{FFD7652E-60A8-4263-95D9-1D2C1452C21C}"/>
     <cellStyle name="Moneda 6 3" xfId="156" xr:uid="{D8E12D06-6265-4D1A-BB64-E547AAACEE37}"/>
@@ -1965,10 +2024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N121"/>
+  <dimension ref="A1:N124"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2366,13 +2425,13 @@
     <row r="2" spans="1:14" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="63"/>
+      <c r="E2" s="65"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -2383,7 +2442,7 @@
     <row r="3" spans="1:14" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A3" s="25"/>
       <c r="B3" s="26"/>
-      <c r="C3" s="67"/>
+      <c r="C3" s="69"/>
       <c r="D3" s="27" t="s">
         <v>23</v>
       </c>
@@ -2398,13 +2457,13 @@
     <row r="4" spans="1:14" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="25"/>
       <c r="B4" s="26"/>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="69"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -2415,19 +2474,19 @@
     <row r="5" spans="1:14" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A5" s="23"/>
       <c r="B5" s="24"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="70" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="71"/>
+      <c r="E5" s="73"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
       <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1">
@@ -2436,8 +2495,8 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
     </row>
     <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="8" t="s">
@@ -2490,10 +2549,10 @@
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="60"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="10" t="s">
         <v>45</v>
       </c>
@@ -2651,17 +2710,17 @@
       <c r="M23" s="13"/>
     </row>
     <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="72">
-        <v>0</v>
+      <c r="A24" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="81">
+        <v>190703816</v>
+      </c>
+      <c r="C24" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="77">
+        <v>3</v>
       </c>
       <c r="E24" s="37"/>
       <c r="F24"/>
@@ -2669,107 +2728,107 @@
       <c r="M24" s="13"/>
     </row>
     <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="75">
-        <v>210431404</v>
-      </c>
-      <c r="C25" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="72">
-        <v>6</v>
+      <c r="A25" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="81">
+        <v>190703816</v>
+      </c>
+      <c r="C25" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="77">
+        <v>1</v>
       </c>
       <c r="E25" s="37"/>
       <c r="F25"/>
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
     </row>
-    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="78" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="75">
-        <v>210936625</v>
-      </c>
-      <c r="C26" s="77" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="72">
-        <v>3</v>
+    <row r="26" spans="1:13" s="75" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="80" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="81">
+        <v>190703814</v>
+      </c>
+      <c r="C26" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="77">
+        <v>4</v>
       </c>
       <c r="E26" s="37"/>
-      <c r="F26"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-    </row>
-    <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="75">
-        <v>201023154</v>
-      </c>
-      <c r="C27" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="72">
-        <v>3</v>
+      <c r="F26" s="74"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+    </row>
+    <row r="27" spans="1:13" s="75" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="83">
+        <v>190703812</v>
+      </c>
+      <c r="C27" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="77">
+        <v>4</v>
       </c>
       <c r="E27" s="37"/>
-      <c r="F27"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-    </row>
-    <row r="28" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="75">
-        <v>210936627</v>
-      </c>
-      <c r="C28" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="72">
-        <v>3</v>
+      <c r="F27" s="74"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+    </row>
+    <row r="28" spans="1:13" s="75" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="83">
+        <v>190703812</v>
+      </c>
+      <c r="C28" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="77">
+        <v>4</v>
       </c>
       <c r="E28" s="37"/>
-      <c r="F28"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="78" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="75">
-        <v>210936628</v>
-      </c>
-      <c r="C29" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="72">
-        <v>3</v>
+      <c r="F28" s="74"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
+    </row>
+    <row r="29" spans="1:13" s="75" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="83">
+        <v>190703808</v>
+      </c>
+      <c r="C29" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="77">
+        <v>4</v>
       </c>
       <c r="E29" s="37"/>
-      <c r="F29"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
+      <c r="F29" s="74"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="76"/>
     </row>
     <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" s="75">
-        <v>210936629</v>
-      </c>
-      <c r="C30" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="72">
-        <v>3</v>
+      <c r="A30" s="83" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="83">
+        <v>190703807</v>
+      </c>
+      <c r="C30" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="77">
+        <v>4</v>
       </c>
       <c r="E30" s="37"/>
       <c r="F30"/>
@@ -2777,17 +2836,17 @@
       <c r="M30" s="13"/>
     </row>
     <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="78" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" s="75">
-        <v>210936630</v>
-      </c>
-      <c r="C31" s="77" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="72">
-        <v>0</v>
+      <c r="A31" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="83">
+        <v>190805269</v>
+      </c>
+      <c r="C31" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="77">
+        <v>4</v>
       </c>
       <c r="E31" s="37"/>
       <c r="F31"/>
@@ -2795,17 +2854,17 @@
       <c r="M31" s="13"/>
     </row>
     <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="78" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="75">
-        <v>210431403</v>
-      </c>
-      <c r="C32" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="72">
-        <v>1</v>
+      <c r="A32" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="83">
+        <v>190805271</v>
+      </c>
+      <c r="C32" s="78" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="77">
+        <v>4</v>
       </c>
       <c r="E32" s="37"/>
       <c r="F32"/>
@@ -2813,17 +2872,17 @@
       <c r="M32" s="13"/>
     </row>
     <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="78" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33" s="75">
-        <v>210431404</v>
-      </c>
-      <c r="C33" s="77" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" s="72">
-        <v>3</v>
+      <c r="A33" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="83">
+        <v>190805272</v>
+      </c>
+      <c r="C33" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="77">
+        <v>5</v>
       </c>
       <c r="E33" s="37"/>
       <c r="F33"/>
@@ -2831,17 +2890,17 @@
       <c r="M33" s="13"/>
     </row>
     <row r="34" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="78" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="75">
-        <v>210936625</v>
-      </c>
-      <c r="C34" s="77" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="72">
-        <v>6</v>
+      <c r="A34" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="83">
+        <v>190805273</v>
+      </c>
+      <c r="C34" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="77">
+        <v>5</v>
       </c>
       <c r="E34" s="37"/>
       <c r="F34"/>
@@ -2849,17 +2908,17 @@
       <c r="M34" s="13"/>
     </row>
     <row r="35" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="75">
-        <v>201023154</v>
-      </c>
-      <c r="C35" s="77" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" s="72">
-        <v>6</v>
+      <c r="A35" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="83">
+        <v>200214385</v>
+      </c>
+      <c r="C35" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="77">
+        <v>5</v>
       </c>
       <c r="E35" s="37"/>
       <c r="F35"/>
@@ -2867,17 +2926,17 @@
       <c r="M35" s="13"/>
     </row>
     <row r="36" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" s="75">
-        <v>210936628</v>
-      </c>
-      <c r="C36" s="77" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" s="72">
-        <v>6</v>
+      <c r="A36" s="83" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="83">
+        <v>190805275</v>
+      </c>
+      <c r="C36" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" s="77">
+        <v>4</v>
       </c>
       <c r="E36" s="37"/>
       <c r="F36"/>
@@ -2885,11 +2944,17 @@
       <c r="M36" s="13"/>
     </row>
     <row r="37" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="78"/>
-      <c r="B37" s="75"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="73">
-        <v>43</v>
+      <c r="A37" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="83">
+        <v>190805276</v>
+      </c>
+      <c r="C37" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="77">
+        <v>3</v>
       </c>
       <c r="E37" s="37"/>
       <c r="F37"/>
@@ -2897,17 +2962,17 @@
       <c r="M37" s="13"/>
     </row>
     <row r="38" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="B38" s="75" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" s="77" t="s">
-        <v>108</v>
-      </c>
-      <c r="D38" s="72">
-        <v>5</v>
+      <c r="A38" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="77">
+        <v>1</v>
       </c>
       <c r="E38" s="37"/>
       <c r="F38"/>
@@ -2915,77 +2980,92 @@
       <c r="M38" s="13"/>
     </row>
     <row r="39" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="34"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
+      <c r="A39" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="D39" s="77">
+        <v>0</v>
+      </c>
+      <c r="E39" s="37"/>
+      <c r="F39"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
     </row>
     <row r="40" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="34"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
+      <c r="A40" s="83"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="79">
+        <v>55</v>
+      </c>
+      <c r="E40" s="37"/>
+      <c r="F40"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
     </row>
     <row r="41" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="34"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
+      <c r="A41" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" s="77">
+        <v>5</v>
+      </c>
+      <c r="E41" s="37"/>
+      <c r="F41"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
     </row>
     <row r="42" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="34"/>
-      <c r="B42" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="51" t="s">
-        <v>48</v>
-      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
       <c r="D42" s="35"/>
       <c r="E42" s="35"/>
     </row>
     <row r="43" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="34"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="51" t="s">
-        <v>34</v>
-      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
     </row>
     <row r="44" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="34"/>
-      <c r="B44" s="52">
-        <v>1</v>
-      </c>
-      <c r="C44" s="53" t="s">
-        <v>50</v>
+      <c r="B44" s="49"/>
+      <c r="C44" s="54" t="s">
+        <v>49</v>
       </c>
       <c r="D44" s="35"/>
       <c r="E44" s="35"/>
     </row>
     <row r="45" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="34"/>
-      <c r="B45" s="52">
-        <v>1</v>
-      </c>
-      <c r="C45" s="53" t="s">
-        <v>51</v>
+      <c r="B45" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>48</v>
       </c>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
     </row>
     <row r="46" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="34"/>
-      <c r="B46" s="52">
-        <v>1</v>
-      </c>
-      <c r="C46" s="53" t="s">
-        <v>52</v>
+      <c r="B46" s="55"/>
+      <c r="C46" s="51" t="s">
+        <v>34</v>
       </c>
       <c r="D46" s="35"/>
       <c r="E46" s="35"/>
@@ -2996,59 +3076,59 @@
         <v>1</v>
       </c>
       <c r="C47" s="53" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D47" s="35"/>
       <c r="E47" s="35"/>
     </row>
     <row r="48" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="34"/>
-      <c r="B48" s="36">
-        <f>SUM(B44:B47)</f>
-        <v>4</v>
-      </c>
-      <c r="C48" s="53"/>
+      <c r="B48" s="52">
+        <v>1</v>
+      </c>
+      <c r="C48" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="34"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="51" t="s">
-        <v>35</v>
+      <c r="B49" s="52">
+        <v>1</v>
+      </c>
+      <c r="C49" s="53" t="s">
+        <v>52</v>
       </c>
       <c r="D49" s="35"/>
       <c r="E49" s="35"/>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="34"/>
-      <c r="B50" s="42">
-        <v>1</v>
-      </c>
-      <c r="C50" s="50" t="s">
-        <v>54</v>
+      <c r="B50" s="52">
+        <v>1</v>
+      </c>
+      <c r="C50" s="53" t="s">
+        <v>53</v>
       </c>
       <c r="D50" s="35"/>
       <c r="E50" s="35"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="34"/>
-      <c r="B51" s="42">
-        <v>1</v>
-      </c>
-      <c r="C51" s="50" t="s">
-        <v>55</v>
-      </c>
+      <c r="B51" s="36">
+        <f>SUM(B47:B50)</f>
+        <v>4</v>
+      </c>
+      <c r="C51" s="53"/>
       <c r="D51" s="35"/>
       <c r="E51" s="35"/>
     </row>
     <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="34"/>
-      <c r="B52" s="42">
-        <v>1</v>
-      </c>
-      <c r="C52" s="50" t="s">
-        <v>56</v>
+      <c r="B52" s="55"/>
+      <c r="C52" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
@@ -3059,7 +3139,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="50" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D53" s="35"/>
       <c r="E53" s="35"/>
@@ -3070,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="50" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
@@ -3081,59 +3161,59 @@
         <v>1</v>
       </c>
       <c r="C55" s="50" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D55" s="35"/>
       <c r="E55" s="35"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="34"/>
-      <c r="B56" s="55">
-        <f>SUM(B50:B55)</f>
-        <v>6</v>
-      </c>
-      <c r="C56" s="51"/>
+      <c r="B56" s="42">
+        <v>1</v>
+      </c>
+      <c r="C56" s="50" t="s">
+        <v>57</v>
+      </c>
       <c r="D56" s="35"/>
       <c r="E56" s="35"/>
     </row>
     <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="34"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="51" t="s">
-        <v>36</v>
+      <c r="B57" s="42">
+        <v>1</v>
+      </c>
+      <c r="C57" s="50" t="s">
+        <v>58</v>
       </c>
       <c r="D57" s="35"/>
       <c r="E57" s="35"/>
     </row>
     <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="34"/>
-      <c r="B58" s="52">
-        <v>1</v>
-      </c>
-      <c r="C58" s="53" t="s">
-        <v>29</v>
+      <c r="B58" s="42">
+        <v>1</v>
+      </c>
+      <c r="C58" s="50" t="s">
+        <v>59</v>
       </c>
       <c r="D58" s="35"/>
       <c r="E58" s="35"/>
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="34"/>
-      <c r="B59" s="52">
-        <v>1</v>
-      </c>
-      <c r="C59" s="53" t="s">
-        <v>60</v>
-      </c>
+      <c r="B59" s="55">
+        <f>SUM(B53:B58)</f>
+        <v>6</v>
+      </c>
+      <c r="C59" s="51"/>
       <c r="D59" s="35"/>
       <c r="E59" s="35"/>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="34"/>
-      <c r="B60" s="52">
-        <v>1</v>
-      </c>
-      <c r="C60" s="53" t="s">
-        <v>61</v>
+      <c r="B60" s="55"/>
+      <c r="C60" s="51" t="s">
+        <v>36</v>
       </c>
       <c r="D60" s="35"/>
       <c r="E60" s="35"/>
@@ -3144,7 +3224,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="53" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D61" s="35"/>
       <c r="E61" s="35"/>
@@ -3155,29 +3235,29 @@
         <v>1</v>
       </c>
       <c r="C62" s="53" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D62" s="35"/>
       <c r="E62" s="35"/>
     </row>
     <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="34"/>
-      <c r="B63" s="42">
-        <v>4</v>
-      </c>
-      <c r="C63" s="50" t="s">
-        <v>64</v>
+      <c r="B63" s="52">
+        <v>1</v>
+      </c>
+      <c r="C63" s="53" t="s">
+        <v>61</v>
       </c>
       <c r="D63" s="35"/>
       <c r="E63" s="35"/>
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="34"/>
-      <c r="B64" s="55">
-        <v>6</v>
+      <c r="B64" s="52">
+        <v>1</v>
       </c>
       <c r="C64" s="53" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D64" s="35"/>
       <c r="E64" s="35"/>
@@ -3188,492 +3268,508 @@
         <v>1</v>
       </c>
       <c r="C65" s="53" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D65" s="35"/>
       <c r="E65" s="35"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="34"/>
-      <c r="B66" s="52">
-        <v>1</v>
-      </c>
-      <c r="C66" s="53" t="s">
-        <v>67</v>
+      <c r="B66" s="42">
+        <v>4</v>
+      </c>
+      <c r="C66" s="50" t="s">
+        <v>64</v>
       </c>
       <c r="D66" s="35"/>
       <c r="E66" s="35"/>
     </row>
     <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="34"/>
-      <c r="B67" s="36">
-        <f>SUM(B58:B66)</f>
-        <v>17</v>
-      </c>
-      <c r="C67" s="53"/>
+      <c r="B67" s="55">
+        <v>6</v>
+      </c>
+      <c r="C67" s="53" t="s">
+        <v>65</v>
+      </c>
       <c r="D67" s="35"/>
       <c r="E67" s="35"/>
     </row>
     <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="34"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
+      <c r="B68" s="52">
+        <v>1</v>
+      </c>
+      <c r="C68" s="53" t="s">
+        <v>66</v>
+      </c>
       <c r="D68" s="35"/>
       <c r="E68" s="35"/>
     </row>
-    <row r="69" spans="1:5" s="74" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="34"/>
-      <c r="B69" s="83"/>
-      <c r="C69" s="81" t="s">
-        <v>109</v>
-      </c>
-      <c r="D69" s="76"/>
-      <c r="E69" s="76"/>
-    </row>
-    <row r="70" spans="1:5" s="74" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B69" s="52">
+        <v>1</v>
+      </c>
+      <c r="C69" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+    </row>
+    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="34"/>
-      <c r="B70" s="81" t="s">
+      <c r="B70" s="36">
+        <f>SUM(B61:B69)</f>
+        <v>17</v>
+      </c>
+      <c r="C70" s="53"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+    </row>
+    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A71" s="34"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+    </row>
+    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A72" s="34"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
+    </row>
+    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A73" s="34"/>
+      <c r="B73" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C70" s="81" t="s">
+      <c r="C73" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D70" s="76"/>
-      <c r="E70" s="76"/>
-    </row>
-    <row r="71" spans="1:5" s="74" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="34"/>
-      <c r="B71" s="79">
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+    </row>
+    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A74" s="34"/>
+      <c r="B74" s="56">
         <v>2</v>
       </c>
-      <c r="C71" s="80" t="s">
-        <v>110</v>
-      </c>
-      <c r="D71" s="76"/>
-      <c r="E71" s="76"/>
-    </row>
-    <row r="72" spans="1:5" s="74" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A72" s="34"/>
-      <c r="B72" s="79">
+      <c r="C74" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+    </row>
+    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A75" s="34"/>
+      <c r="B75" s="56">
         <v>2</v>
       </c>
-      <c r="C72" s="80" t="s">
+      <c r="C75" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="D72" s="76"/>
-      <c r="E72" s="76"/>
-    </row>
-    <row r="73" spans="1:5" s="74" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="34"/>
-      <c r="B73" s="79">
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+    </row>
+    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A76" s="34"/>
+      <c r="B76" s="56">
         <v>2</v>
       </c>
-      <c r="C73" s="80" t="s">
+      <c r="C76" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D73" s="76"/>
-      <c r="E73" s="76"/>
-    </row>
-    <row r="74" spans="1:5" s="74" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="34"/>
-      <c r="B74" s="79">
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
+    </row>
+    <row r="77" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A77" s="34"/>
+      <c r="B77" s="56">
         <v>2</v>
       </c>
-      <c r="C74" s="80" t="s">
-        <v>111</v>
-      </c>
-      <c r="D74" s="76"/>
-      <c r="E74" s="76"/>
-    </row>
-    <row r="75" spans="1:5" s="74" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="34"/>
-      <c r="B75" s="79">
+      <c r="C77" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
+    </row>
+    <row r="78" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A78" s="34"/>
+      <c r="B78" s="56">
         <v>2</v>
       </c>
-      <c r="C75" s="82" t="s">
+      <c r="C78" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D75" s="76"/>
-      <c r="E75" s="76"/>
-    </row>
-    <row r="76" spans="1:5" s="74" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="34"/>
-      <c r="B76" s="79">
-        <v>1</v>
-      </c>
-      <c r="C76" s="80" t="s">
-        <v>112</v>
-      </c>
-      <c r="D76" s="76"/>
-      <c r="E76" s="76"/>
-    </row>
-    <row r="77" spans="1:5" s="74" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A77" s="34"/>
-      <c r="B77" s="79">
-        <v>1</v>
-      </c>
-      <c r="C77" s="80" t="s">
+      <c r="D78" s="35"/>
+      <c r="E78" s="35"/>
+    </row>
+    <row r="79" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A79" s="34"/>
+      <c r="B79" s="56">
+        <v>1</v>
+      </c>
+      <c r="C79" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79" s="35"/>
+      <c r="E79" s="35"/>
+    </row>
+    <row r="80" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A80" s="34"/>
+      <c r="B80" s="56">
+        <v>1</v>
+      </c>
+      <c r="C80" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="D77" s="76"/>
-      <c r="E77" s="76"/>
-    </row>
-    <row r="78" spans="1:5" s="74" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A78" s="34"/>
-      <c r="B78" s="79">
-        <v>1</v>
-      </c>
-      <c r="C78" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="D78" s="76"/>
-      <c r="E78" s="76"/>
-    </row>
-    <row r="79" spans="1:5" s="74" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="34"/>
-      <c r="B79" s="79">
+      <c r="D80" s="35"/>
+      <c r="E80" s="35"/>
+    </row>
+    <row r="81" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A81" s="34"/>
+      <c r="B81" s="56">
+        <v>1</v>
+      </c>
+      <c r="C81" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+    </row>
+    <row r="82" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A82" s="34"/>
+      <c r="B82" s="56">
         <v>2</v>
       </c>
-      <c r="C79" s="80" t="s">
+      <c r="C82" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D79" s="76"/>
-      <c r="E79" s="76"/>
-    </row>
-    <row r="80" spans="1:5" s="74" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A80" s="34"/>
-      <c r="B80" s="79">
-        <v>1</v>
-      </c>
-      <c r="C80" s="80" t="s">
-        <v>114</v>
-      </c>
-      <c r="D80" s="76"/>
-      <c r="E80" s="76"/>
-    </row>
-    <row r="81" spans="1:5" s="74" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="34"/>
-      <c r="B81" s="79">
-        <v>1</v>
-      </c>
-      <c r="C81" s="80" t="s">
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+    </row>
+    <row r="83" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A83" s="34"/>
+      <c r="B83" s="56">
+        <v>1</v>
+      </c>
+      <c r="C83" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
+    </row>
+    <row r="84" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A84" s="34"/>
+      <c r="B84" s="56">
+        <v>1</v>
+      </c>
+      <c r="C84" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="D81" s="76"/>
-      <c r="E81" s="76"/>
-    </row>
-    <row r="82" spans="1:5" s="74" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="34"/>
-      <c r="B82" s="79">
-        <v>1</v>
-      </c>
-      <c r="C82" s="80" t="s">
-        <v>115</v>
-      </c>
-      <c r="D82" s="76"/>
-      <c r="E82" s="76"/>
-    </row>
-    <row r="83" spans="1:5" s="74" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="34"/>
-      <c r="B83" s="79">
-        <v>1</v>
-      </c>
-      <c r="C83" s="80" t="s">
-        <v>116</v>
-      </c>
-      <c r="D83" s="76"/>
-      <c r="E83" s="76"/>
-    </row>
-    <row r="84" spans="1:5" s="74" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A84" s="34"/>
-      <c r="B84" s="79">
-        <v>1</v>
-      </c>
-      <c r="C84" s="80" t="s">
+      <c r="D84" s="35"/>
+      <c r="E84" s="35"/>
+    </row>
+    <row r="85" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A85" s="34"/>
+      <c r="B85" s="56">
+        <v>1</v>
+      </c>
+      <c r="C85" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="D85" s="35"/>
+      <c r="E85" s="35"/>
+    </row>
+    <row r="86" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A86" s="34"/>
+      <c r="B86" s="56">
+        <v>1</v>
+      </c>
+      <c r="C86" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D86" s="35"/>
+      <c r="E86" s="35"/>
+    </row>
+    <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A87" s="34"/>
+      <c r="B87" s="56">
+        <v>1</v>
+      </c>
+      <c r="C87" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D84" s="76"/>
-      <c r="E84" s="76"/>
-    </row>
-    <row r="85" spans="1:5" s="74" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A85" s="34"/>
-      <c r="B85" s="79">
+      <c r="D87" s="35"/>
+      <c r="E87" s="35"/>
+    </row>
+    <row r="88" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A88" s="34"/>
+      <c r="B88" s="56">
         <v>2</v>
       </c>
-      <c r="C85" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="D85" s="76"/>
-      <c r="E85" s="76"/>
-    </row>
-    <row r="86" spans="1:5" s="74" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A86" s="34"/>
-      <c r="B86" s="79">
-        <v>1</v>
-      </c>
-      <c r="C86" s="80" t="s">
-        <v>118</v>
-      </c>
-      <c r="D86" s="76"/>
-      <c r="E86" s="76"/>
-    </row>
-    <row r="87" spans="1:5" s="74" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A87" s="34"/>
-      <c r="B87" s="79">
-        <v>1</v>
-      </c>
-      <c r="C87" s="80" t="s">
-        <v>119</v>
-      </c>
-      <c r="D87" s="76"/>
-      <c r="E87" s="76"/>
-    </row>
-    <row r="88" spans="1:5" s="74" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A88" s="34"/>
-      <c r="B88" s="79">
-        <v>2</v>
-      </c>
-      <c r="C88" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="D88" s="76"/>
-      <c r="E88" s="76"/>
+      <c r="C88" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="D88" s="35"/>
+      <c r="E88" s="35"/>
     </row>
     <row r="89" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A89" s="34"/>
-      <c r="B89" s="79">
-        <v>1</v>
-      </c>
-      <c r="C89" s="80" t="s">
-        <v>120</v>
+      <c r="B89" s="56">
+        <v>1</v>
+      </c>
+      <c r="C89" s="53" t="s">
+        <v>88</v>
       </c>
       <c r="D89" s="35"/>
       <c r="E89" s="35"/>
     </row>
     <row r="90" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A90" s="34"/>
-      <c r="B90" s="81">
-        <v>26</v>
-      </c>
-      <c r="C90" s="80"/>
+      <c r="B90" s="56">
+        <v>1</v>
+      </c>
+      <c r="C90" s="53" t="s">
+        <v>89</v>
+      </c>
       <c r="D90" s="35"/>
       <c r="E90" s="35"/>
     </row>
     <row r="91" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A91" s="34"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
+      <c r="B91" s="56">
+        <v>2</v>
+      </c>
+      <c r="C91" s="53" t="s">
+        <v>44</v>
+      </c>
       <c r="D91" s="35"/>
       <c r="E91" s="35"/>
     </row>
     <row r="92" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A92" s="34"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
+      <c r="B92" s="56">
+        <v>1</v>
+      </c>
+      <c r="C92" s="53" t="s">
+        <v>90</v>
+      </c>
       <c r="D92" s="35"/>
       <c r="E92" s="35"/>
     </row>
     <row r="93" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A93" s="34"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
+      <c r="B93" s="51">
+        <v>26</v>
+      </c>
+      <c r="C93" s="53"/>
       <c r="D93" s="35"/>
       <c r="E93" s="35"/>
     </row>
     <row r="94" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A94" s="34"/>
-      <c r="B94" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="C94" s="57"/>
-      <c r="D94" s="58"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="35"/>
       <c r="E94" s="35"/>
     </row>
     <row r="95" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A95" s="34"/>
-      <c r="B95" s="79">
-        <v>1</v>
-      </c>
-      <c r="C95" s="80" t="s">
-        <v>68</v>
-      </c>
-      <c r="D95" s="80" t="s">
-        <v>123</v>
-      </c>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="35"/>
       <c r="E95" s="35"/>
     </row>
     <row r="96" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A96" s="34"/>
-      <c r="B96" s="79">
-        <v>1</v>
-      </c>
-      <c r="C96" s="80" t="s">
-        <v>69</v>
-      </c>
-      <c r="D96" s="80" t="s">
-        <v>124</v>
-      </c>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="35"/>
       <c r="E96" s="35"/>
     </row>
     <row r="97" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A97" s="34"/>
-      <c r="B97" s="79">
-        <v>1</v>
-      </c>
-      <c r="C97" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="D97" s="80" t="s">
-        <v>125</v>
-      </c>
+      <c r="B97" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="C97" s="59"/>
+      <c r="D97" s="60"/>
       <c r="E97" s="35"/>
     </row>
     <row r="98" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A98" s="34"/>
-      <c r="B98" s="79">
-        <v>1</v>
-      </c>
-      <c r="C98" s="80" t="s">
-        <v>71</v>
-      </c>
-      <c r="D98" s="80" t="s">
-        <v>72</v>
+      <c r="B98" s="56">
+        <v>1</v>
+      </c>
+      <c r="C98" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" s="53" t="s">
+        <v>93</v>
       </c>
       <c r="E98" s="35"/>
     </row>
     <row r="99" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A99" s="34"/>
-      <c r="B99" s="79">
-        <v>1</v>
-      </c>
-      <c r="C99" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="D99" s="80" t="s">
-        <v>126</v>
+      <c r="B99" s="56">
+        <v>1</v>
+      </c>
+      <c r="C99" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D99" s="53" t="s">
+        <v>94</v>
       </c>
       <c r="E99" s="35"/>
     </row>
     <row r="100" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A100" s="34"/>
-      <c r="B100" s="79">
-        <v>1</v>
-      </c>
-      <c r="C100" s="80" t="s">
-        <v>74</v>
-      </c>
-      <c r="D100" s="82">
-        <v>2310111007</v>
+      <c r="B100" s="56">
+        <v>1</v>
+      </c>
+      <c r="C100" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D100" s="53" t="s">
+        <v>95</v>
       </c>
       <c r="E100" s="35"/>
     </row>
     <row r="101" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A101" s="34"/>
-      <c r="B101" s="79">
-        <v>1</v>
-      </c>
-      <c r="C101" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="D101" s="80"/>
+      <c r="B101" s="56">
+        <v>1</v>
+      </c>
+      <c r="C101" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D101" s="53" t="s">
+        <v>72</v>
+      </c>
       <c r="E101" s="35"/>
     </row>
     <row r="102" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A102" s="34"/>
-      <c r="B102" s="79">
-        <v>1</v>
-      </c>
-      <c r="C102" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="D102" s="80"/>
+      <c r="B102" s="56">
+        <v>1</v>
+      </c>
+      <c r="C102" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D102" s="53" t="s">
+        <v>96</v>
+      </c>
       <c r="E102" s="35"/>
     </row>
     <row r="103" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A103" s="34"/>
-      <c r="B103" s="79">
-        <v>1</v>
-      </c>
-      <c r="C103" s="80" t="s">
-        <v>77</v>
-      </c>
-      <c r="D103" s="82"/>
+      <c r="B103" s="56">
+        <v>1</v>
+      </c>
+      <c r="C103" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D103" s="50">
+        <v>2310111007</v>
+      </c>
       <c r="E103" s="35"/>
     </row>
     <row r="104" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A104" s="34"/>
-      <c r="B104" s="81">
-        <f>SUM(B95:B103)</f>
-        <v>9</v>
-      </c>
-      <c r="C104" s="80"/>
-      <c r="D104" s="80"/>
+      <c r="B104" s="56">
+        <v>1</v>
+      </c>
+      <c r="C104" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D104" s="53"/>
       <c r="E104" s="35"/>
     </row>
     <row r="105" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A105" s="34"/>
-      <c r="B105" s="47">
+      <c r="B105" s="56">
+        <v>1</v>
+      </c>
+      <c r="C105" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="D105" s="53"/>
+      <c r="E105" s="35"/>
+    </row>
+    <row r="106" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A106" s="34"/>
+      <c r="B106" s="56">
+        <v>1</v>
+      </c>
+      <c r="C106" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D106" s="50"/>
+      <c r="E106" s="35"/>
+    </row>
+    <row r="107" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A107" s="34"/>
+      <c r="B107" s="51">
+        <f>SUM(B98:B106)</f>
+        <v>9</v>
+      </c>
+      <c r="C107" s="53"/>
+      <c r="D107" s="53"/>
+      <c r="E107" s="35"/>
+    </row>
+    <row r="108" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A108" s="34"/>
+      <c r="B108" s="47">
         <v>2</v>
       </c>
-      <c r="C105" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="D105" s="17"/>
-      <c r="E105" s="35"/>
-    </row>
-    <row r="106" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A106" s="29"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="30"/>
-    </row>
-    <row r="107" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A107" s="29"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="30"/>
-    </row>
-    <row r="108" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A108" s="29"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="30"/>
+      <c r="C108" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D108" s="17"/>
+      <c r="E108" s="35"/>
     </row>
     <row r="109" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A109" s="29"/>
       <c r="B109" s="17"/>
       <c r="C109" s="30"/>
     </row>
-    <row r="110" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A110" s="31"/>
-      <c r="B110" s="48" t="s">
+    <row r="110" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A110" s="29"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="30"/>
+    </row>
+    <row r="111" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A111" s="29"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="30"/>
+    </row>
+    <row r="112" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A112" s="29"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="30"/>
+    </row>
+    <row r="113" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A113" s="31"/>
+      <c r="B113" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C110" s="32"/>
-    </row>
-    <row r="111" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A111" s="31"/>
-      <c r="B111" s="48"/>
-      <c r="C111" s="30"/>
-    </row>
-    <row r="112" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A112" s="29"/>
-      <c r="B112" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C112" s="32"/>
-    </row>
-    <row r="113" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A113" s="29"/>
-      <c r="B113" s="30"/>
-      <c r="C113" s="30"/>
+      <c r="C113" s="32"/>
     </row>
     <row r="114" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A114" s="29"/>
-      <c r="B114" s="30"/>
+      <c r="A114" s="31"/>
+      <c r="B114" s="48"/>
       <c r="C114" s="30"/>
     </row>
     <row r="115" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A115" s="29"/>
       <c r="B115" s="30" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C115" s="32"/>
     </row>
@@ -3690,7 +3786,7 @@
     <row r="118" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A118" s="29"/>
       <c r="B118" s="30" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C118" s="32"/>
     </row>
@@ -3707,13 +3803,30 @@
     <row r="121" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A121" s="29"/>
       <c r="B121" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C121" s="32"/>
+    </row>
+    <row r="122" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A122" s="29"/>
+      <c r="B122" s="30"/>
+      <c r="C122" s="30"/>
+    </row>
+    <row r="123" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A123" s="29"/>
+      <c r="B123" s="30"/>
+      <c r="C123" s="30"/>
+    </row>
+    <row r="124" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A124" s="29"/>
+      <c r="B124" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C121" s="32"/>
+      <c r="C124" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B97:D97"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="L5:M6"/>
     <mergeCell ref="D2:E2"/>
@@ -3722,7 +3835,7 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
   </mergeCells>
-  <conditionalFormatting sqref="A24:C26">
+  <conditionalFormatting sqref="A24:C30">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
